--- a/Config/AccountDBList.xlsx
+++ b/Config/AccountDBList.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ServerBase\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF0E7EA-6B00-4DAE-9B22-7970AD811BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0A0F3D-CF48-4094-B198-39BF71A9FD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="2910" windowWidth="21600" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="23" windowWidth="28996" windowHeight="15795" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AccountDBList" sheetId="1" r:id="rId1"/>
     <sheet name="t_account" sheetId="2" r:id="rId2"/>
     <sheet name="t_serverlist" sheetId="3" r:id="rId3"/>
+    <sheet name="t_resources" sheetId="4" r:id="rId4"/>
+    <sheet name="t_data" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="57">
   <si>
     <t>ID:INT</t>
   </si>
@@ -172,6 +174,57 @@
   </si>
   <si>
     <t>NICEDATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据MD5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_resources</t>
+  </si>
+  <si>
+    <t>t_resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限状态[用于管理验证]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -601,12 +654,26 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C6" s="1"/>
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C7" s="3"/>
@@ -626,7 +693,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -907,4 +974,354 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07F229E-9581-4B99-A32C-C5ABCE5D3BEC}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0D0A6D-ADD8-46C8-B014-D8B6806541DB}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Config/AccountDBList.xlsx
+++ b/Config/AccountDBList.xlsx
@@ -8,28 +8,45 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ServerBase\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0A0F3D-CF48-4094-B198-39BF71A9FD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACDE423-7FC6-40FC-BD46-2D85ED11276B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="23" windowWidth="28996" windowHeight="15795" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AccountDBList" sheetId="1" r:id="rId1"/>
     <sheet name="t_account" sheetId="2" r:id="rId2"/>
-    <sheet name="t_serverlist" sheetId="3" r:id="rId3"/>
-    <sheet name="t_resources" sheetId="4" r:id="rId4"/>
-    <sheet name="t_data" sheetId="5" r:id="rId5"/>
+    <sheet name="t_user" sheetId="16" r:id="rId3"/>
+    <sheet name="t_userdata" sheetId="6" r:id="rId4"/>
+    <sheet name="t_goods" sheetId="11" r:id="rId5"/>
+    <sheet name="t_buy_record" sheetId="14" r:id="rId6"/>
+    <sheet name="t_pay_record" sheetId="15" r:id="rId7"/>
+    <sheet name="t_serverlist" sheetId="3" r:id="rId8"/>
+    <sheet name="t_resources" sheetId="4" r:id="rId9"/>
+    <sheet name="t_data" sheetId="5" r:id="rId10"/>
+    <sheet name="t_manager" sheetId="7" r:id="rId11"/>
+    <sheet name="t_commodity" sheetId="8" r:id="rId12"/>
+    <sheet name="t_commodity_data1" sheetId="9" r:id="rId13"/>
+    <sheet name="t_commodity_data2" sheetId="10" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="168">
   <si>
     <t>ID:INT</t>
   </si>
@@ -225,6 +242,449 @@
   </si>
   <si>
     <t>权限状态[用于管理验证]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERDATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVITE_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTRODUCER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐人DBID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGISTER_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册时间(2000年开始)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UINT64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_userdata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
+  </si>
+  <si>
+    <t>帐号主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户DBID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTIVE_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后登陆使用时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTIVE_IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POWER_LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后使用的登陆地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANAGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员帐号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_commodity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示数据使用的表名(t_commodity_data1, t_commodity_data2 两个互换)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示结构:t_commodity_data1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据名称主键 (功能页面名称, 如展示页, 化妆品页面, 健康食品, 租衣物)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般为列表的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示图片的保存KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIC_KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态: 1 OK, 0 待检验, 2 不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构扩展数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示结构:t_commodity_data2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_commodity_data1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_commodity_data2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题文本[由于编码问题, 使用二进制方式保存]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息文本[由于编码问题, 使用二进制方式保存]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DETAILS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPECS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格(分)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIDTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LENGTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPECS_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPECS_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPECS_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毫米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OWNER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物等二级数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLLECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS_CART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUY_RECORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NICEDATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_RECORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买记录的最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUYER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS_OWNER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXDATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUY_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联定单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_MODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_buy_record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_pay_record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_pay_reocrd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVENYE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMISSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASH_OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN_CASH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提成收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN_PROCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可提现进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVENYE_CAST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营收金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营收已提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVENYE_CANCAST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营收可提现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -285,6 +745,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -565,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -577,7 +1040,7 @@
     <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.3984375" bestFit="1" customWidth="1"/>
@@ -676,15 +1139,1178 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C7" s="3"/>
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C8" s="2"/>
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>151</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0D0A6D-ADD8-46C8-B014-D8B6806541DB}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>6400000</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16C5FE2-F572-4721-833C-34BEB7C8A749}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71338876-4FC6-4069-BA9B-C2D1B4C840E1}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="94.19921875" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27793B6F-BB63-4BB9-82B3-A77345B6AB41}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="96.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>255</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>255</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F74F64-50F5-47B7-9BD9-F306205B3148}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="96.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>255</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>255</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -693,7 +2319,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -839,11 +2465,1342 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F8C80B-C512-4CD6-8BC5-249284AE55F9}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071F374E-BA0F-46CD-8EB3-2D3D2F0F451C}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4F47AE-2E0F-4B15-B6C2-F8017E6EA35E}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1">
+        <v>255</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1">
+        <v>128</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>128</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34A7E07-C107-4001-87E5-EA12705A2D37}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1860A73-4C68-4C53-A101-2C1B7139AB0F}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFFFE23-D803-4E43-B34A-A3ED6FABDFCA}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -976,12 +3933,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07F229E-9581-4B99-A32C-C5ABCE5D3BEC}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1131,192 +4088,10 @@
         <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0D0A6D-ADD8-46C8-B014-D8B6806541DB}">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.9296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.06640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Config/AccountDBList.xlsx
+++ b/Config/AccountDBList.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ServerBase\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACDE423-7FC6-40FC-BD46-2D85ED11276B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D1857D-336C-47D2-AE45-676BBFC0B3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AccountDBList" sheetId="1" r:id="rId1"/>
-    <sheet name="t_account" sheetId="2" r:id="rId2"/>
-    <sheet name="t_user" sheetId="16" r:id="rId3"/>
-    <sheet name="t_userdata" sheetId="6" r:id="rId4"/>
-    <sheet name="t_goods" sheetId="11" r:id="rId5"/>
-    <sheet name="t_buy_record" sheetId="14" r:id="rId6"/>
-    <sheet name="t_pay_record" sheetId="15" r:id="rId7"/>
-    <sheet name="t_serverlist" sheetId="3" r:id="rId8"/>
-    <sheet name="t_resources" sheetId="4" r:id="rId9"/>
-    <sheet name="t_data" sheetId="5" r:id="rId10"/>
-    <sheet name="t_manager" sheetId="7" r:id="rId11"/>
-    <sheet name="t_commodity" sheetId="8" r:id="rId12"/>
-    <sheet name="t_commodity_data1" sheetId="9" r:id="rId13"/>
-    <sheet name="t_commodity_data2" sheetId="10" r:id="rId14"/>
+    <sheet name="t_template" sheetId="17" r:id="rId2"/>
+    <sheet name="t_account" sheetId="2" r:id="rId3"/>
+    <sheet name="t_user" sheetId="16" r:id="rId4"/>
+    <sheet name="t_userdata" sheetId="6" r:id="rId5"/>
+    <sheet name="t_goods" sheetId="11" r:id="rId6"/>
+    <sheet name="t_buy_record" sheetId="14" r:id="rId7"/>
+    <sheet name="t_pay_record" sheetId="15" r:id="rId8"/>
+    <sheet name="t_serverlist" sheetId="3" r:id="rId9"/>
+    <sheet name="t_resources" sheetId="4" r:id="rId10"/>
+    <sheet name="t_data" sheetId="5" r:id="rId11"/>
+    <sheet name="t_manager" sheetId="7" r:id="rId12"/>
+    <sheet name="t_commodity" sheetId="8" r:id="rId13"/>
+    <sheet name="t_commodity_data1" sheetId="9" r:id="rId14"/>
+    <sheet name="t_commodity_data2" sheetId="10" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="172">
   <si>
     <t>ID:INT</t>
   </si>
@@ -685,6 +686,22 @@
   </si>
   <si>
     <t>营收可提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMPLATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模版数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_template</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1028,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1237,6 +1254,17 @@
         <v>151</v>
       </c>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1245,6 +1273,174 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07F229E-9581-4B99-A32C-C5ABCE5D3BEC}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0D0A6D-ADD8-46C8-B014-D8B6806541DB}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -1429,12 +1625,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16C5FE2-F572-4721-833C-34BEB7C8A749}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1694,12 +1890,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71338876-4FC6-4069-BA9B-C2D1B4C840E1}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1860,7 +2056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27793B6F-BB63-4BB9-82B3-A77345B6AB41}">
   <dimension ref="A1:I11"/>
   <sheetViews>
@@ -2087,7 +2283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F74F64-50F5-47B7-9BD9-F306205B3148}">
   <dimension ref="A1:I11"/>
   <sheetViews>
@@ -2315,11 +2511,175 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797A5CE-DDA7-4DDE-A6DA-D1BDCC5C6DF4}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F74F23-F92B-40D9-9409-01164AEBB4F0}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2464,7 +2824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F8C80B-C512-4CD6-8BC5-249284AE55F9}">
   <dimension ref="A1:I11"/>
   <sheetViews>
@@ -2703,7 +3063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071F374E-BA0F-46CD-8EB3-2D3D2F0F451C}">
   <dimension ref="A1:I17"/>
   <sheetViews>
@@ -2992,7 +3352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4F47AE-2E0F-4B15-B6C2-F8017E6EA35E}">
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -3381,7 +3741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34A7E07-C107-4001-87E5-EA12705A2D37}">
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -3605,7 +3965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1860A73-4C68-4C53-A101-2C1B7139AB0F}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -3795,7 +4155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFFFE23-D803-4E43-B34A-A3ED6FABDFCA}">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -3931,172 +4291,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07F229E-9581-4B99-A32C-C5ABCE5D3BEC}">
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.9296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.06640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>